--- a/inputs_to_load-5x5_yyo.xlsx
+++ b/inputs_to_load-5x5_yyo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8069D00D-F840-47BC-AC23-03AC0BFFB8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA62D846-35A2-43B5-B178-5C31D79EA38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19560" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs_df" sheetId="1" r:id="rId1"/>
@@ -524,23 +524,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -586,27 +586,28 @@
         <v>40</v>
       </c>
       <c r="E2" s="1">
-        <v>2.7436650576002829E-2</v>
+        <v>0.53658449458956081</v>
       </c>
       <c r="F2" s="6">
         <f>E2*70/100</f>
-        <v>1.9205655403201981E-2</v>
+        <v>0.37560914621269254</v>
       </c>
       <c r="G2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="1">
-        <v>0.1647058823529412</v>
+        <f>(D2/parameters!$B$4)*inputs_df!E2</f>
+        <v>0.85853519134329737</v>
       </c>
       <c r="J2">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E2)</f>
-        <v>4982.7701111078732</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>194898.22012482028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -620,11 +621,11 @@
         <v>40</v>
       </c>
       <c r="E3" s="1">
-        <v>2.8724756236848031E-2</v>
+        <v>0.72637532277171302</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F26" si="0">E3*70/100</f>
-        <v>2.0107329365793621E-2</v>
+        <v>0.50846272594019903</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -633,14 +634,15 @@
         <v>17</v>
       </c>
       <c r="I3" s="1">
-        <v>0.10980392156862745</v>
+        <f>(D3/parameters!$B$4)*inputs_df!E3</f>
+        <v>1.1622005164347409</v>
       </c>
       <c r="J3">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E3)</f>
-        <v>5216.7029801739709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>263834.04473714164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -654,28 +656,29 @@
         <v>40</v>
       </c>
       <c r="E4" s="1">
-        <v>3.0012861897693238E-2</v>
+        <v>0.95852109396647223</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="0"/>
-        <v>2.1009003328385269E-2</v>
+        <v>0.67096476577653053</v>
       </c>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="1">
-        <v>0.1647058823529412</v>
+        <f>(D4/parameters!$B$4)*inputs_df!E4</f>
+        <v>1.5336337503463557</v>
       </c>
       <c r="J4">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E4)</f>
-        <v>5450.6358492400695</v>
+        <v>348154.03175050206</v>
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -689,27 +692,28 @@
         <v>40</v>
       </c>
       <c r="E5" s="1">
-        <v>5.6147119784889316E-2</v>
+        <v>1.2411240453345755</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="0"/>
-        <v>3.9302983849422518E-2</v>
+        <v>0.8687868317342029</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="1">
-        <v>0.1647058823529412</v>
+        <f>(D5/parameters!$B$4)*inputs_df!E5</f>
+        <v>1.985798472535321</v>
       </c>
       <c r="J5">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E5)</f>
-        <v>10196.878424133749</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>450801.07574642455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -723,28 +727,29 @@
         <v>40</v>
       </c>
       <c r="E6" s="1">
-        <v>6.960051185233633E-2</v>
+        <v>1.5837197346384713</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>4.8720358296635437E-2</v>
+        <v>1.1086038142469299</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="1">
-        <v>5.4901960784313725E-2</v>
+        <f>(D6/parameters!$B$4)*inputs_df!E6</f>
+        <v>2.533951575421554</v>
       </c>
       <c r="J6">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E6)</f>
-        <v>12640.148957502801</v>
+        <v>575238.6820153856</v>
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -758,11 +763,11 @@
         <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>8.5707187854074773E-2</v>
+        <v>2.6963684189062618</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>5.999503149785234E-2</v>
+        <v>1.8874578932343831</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -771,14 +776,15 @@
         <v>36</v>
       </c>
       <c r="I7" s="1">
-        <v>0.1647058823529412</v>
+        <f>(D7/parameters!$B$4)*inputs_df!E7</f>
+        <v>4.3141894702500192</v>
       </c>
       <c r="J7">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E7)</f>
-        <v>15565.28238617852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>979374.93711513246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -792,27 +798,28 @@
         <v>60</v>
       </c>
       <c r="E8" s="1">
-        <v>9.2151337316787166E-2</v>
+        <v>3.3688271870933586</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>6.4505936121751012E-2</v>
+        <v>2.358179030965351</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="1">
-        <v>0.2470588235294118</v>
+        <f>(D8/parameters!$B$4)*inputs_df!E8</f>
+        <v>8.085185249024061</v>
       </c>
       <c r="J8">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E8)</f>
-        <v>16735.604370101719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1223625.4108960496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -826,11 +833,11 @@
         <v>60</v>
       </c>
       <c r="E9" s="1">
-        <v>0.11686570879803374</v>
+        <v>4.1760307111401795</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>8.1805996158623606E-2</v>
+        <v>2.9232214977981257</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -839,14 +846,15 @@
         <v>38</v>
       </c>
       <c r="I9" s="1">
-        <v>0.41176470588235292</v>
+        <f>(D9/parameters!$B$4)*inputs_df!E9</f>
+        <v>10.022473706736431</v>
       </c>
       <c r="J9">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E9)</f>
-        <v>21223.981374810908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1516817.8749003361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -860,27 +868,28 @@
         <v>60</v>
       </c>
       <c r="E10" s="1">
-        <v>0.10932638511814342</v>
+        <v>5.1424312712444866</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>7.652846958270039E-2</v>
+        <v>3.5997018898711404</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="1">
-        <v>0.2470588235294118</v>
+        <f>(D10/parameters!$B$4)*inputs_df!E10</f>
+        <v>12.341835050986768</v>
       </c>
       <c r="J10">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E10)</f>
-        <v>19854.764801306024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1867833.8863414226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -894,11 +903,11 @@
         <v>60</v>
       </c>
       <c r="E11" s="1">
-        <v>0.10188850840782508</v>
+        <v>5.5290802390072296</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
-        <v>7.1321955885477559E-2</v>
+        <v>3.870356167305061</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -907,14 +916,15 @@
         <v>40</v>
       </c>
       <c r="I11" s="1">
-        <v>0.41176470588235292</v>
+        <f>(D11/parameters!$B$4)*inputs_df!E11</f>
+        <v>13.26979257361735</v>
       </c>
       <c r="J11">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E11)</f>
-        <v>18503.972011945112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2008272.5244122059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -928,28 +938,29 @@
         <v>60</v>
       </c>
       <c r="E12" s="1">
-        <v>1.2106255379528552E-2</v>
+        <v>7.0119425278820247</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
-        <v>8.4743787656699869E-3</v>
+        <v>4.9083597695174168</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="1">
-        <v>0.2470588235294118</v>
+        <f>(D12/parameters!$B$4)*inputs_df!E12</f>
+        <v>16.828662066916859</v>
       </c>
       <c r="J12">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E12)</f>
-        <v>2198.6170394761803</v>
+        <v>2546877.7649773089</v>
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -963,27 +974,28 @@
         <v>80</v>
       </c>
       <c r="E13" s="1">
-        <v>1.5975351566107871E-2</v>
+        <v>6.5595831070886055</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="0"/>
-        <v>1.1182746096275509E-2</v>
+        <v>4.5917081749620241</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="1">
-        <v>0.7686274509803922</v>
+        <f>(D13/parameters!$B$4)*inputs_df!E13</f>
+        <v>20.990665942683538</v>
       </c>
       <c r="J13">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E13)</f>
-        <v>2901.2835979208503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2382571.7761567235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -997,28 +1009,29 @@
         <v>100</v>
       </c>
       <c r="E14" s="1">
-        <v>2.0685400755576261E-2</v>
+        <v>6.1133105044695046</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="0"/>
-        <v>1.4479780528903384E-2</v>
+        <v>4.2793173531286532</v>
       </c>
       <c r="G14" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="1">
-        <v>0.96078431372549022</v>
+        <f>(D14/parameters!$B$4)*inputs_df!E14</f>
+        <v>24.453242017878019</v>
       </c>
       <c r="J14">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E14)</f>
-        <v>3756.6756312202047</v>
+        <v>2220476.6414334131</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1032,11 +1045,11 @@
         <v>100</v>
       </c>
       <c r="E15" s="1">
-        <v>2.6395328910641187E-2</v>
+        <v>5.6783630866157351</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="0"/>
-        <v>1.8476730237448832E-2</v>
+        <v>3.9748541606310148</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1045,14 +1058,15 @@
         <v>22</v>
       </c>
       <c r="I15" s="1">
-        <v>1.0980392156862746</v>
+        <f>(D15/parameters!$B$4)*inputs_df!E15</f>
+        <v>22.71345234646294</v>
       </c>
       <c r="J15">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E15)</f>
-        <v>4793.6556834615458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2062495.0403205673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1066,27 +1080,28 @@
         <v>80</v>
       </c>
       <c r="E16" s="1">
-        <v>4.49394736484377E-2</v>
+        <v>5.2586116039496922</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
-        <v>3.1457631553906393E-2</v>
+        <v>3.6810281227647845</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="1">
-        <v>0.7686274509803922</v>
+        <f>(D16/parameters!$B$4)*inputs_df!E16</f>
+        <v>16.827557132639015</v>
       </c>
       <c r="J16">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E16)</f>
-        <v>8161.4578092927704</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1910032.9067866071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1100,27 +1115,28 @@
         <v>40</v>
       </c>
       <c r="E17" s="1">
-        <v>5.6147119784889316E-2</v>
+        <v>6.556014210416274</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="0"/>
-        <v>3.9302983849422518E-2</v>
+        <v>4.5892099472913914</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I17" s="1">
-        <v>0.1647058823529412</v>
+        <f>(D17/parameters!$B$4)*inputs_df!E17</f>
+        <v>10.489622736666039</v>
       </c>
       <c r="J17">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E17)</f>
-        <v>10196.878424133749</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2381275.4815073991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1134,27 +1150,28 @@
         <v>60</v>
       </c>
       <c r="E18" s="1">
-        <v>6.960051185233633E-2</v>
+        <v>1.6461990345601698</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
-        <v>4.8720358296635437E-2</v>
+        <v>1.1523393241921189</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="1">
-        <v>0.32941176470588235</v>
+        <f>(D18/parameters!$B$4)*inputs_df!E18</f>
+        <v>3.9508776829444074</v>
       </c>
       <c r="J18">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E18)</f>
-        <v>12640.148957502801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>597932.41333294485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1168,27 +1185,28 @@
         <v>80</v>
       </c>
       <c r="E19" s="1">
-        <v>8.5707187854074773E-2</v>
+        <v>1.723485374210882</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
-        <v>5.999503149785234E-2</v>
+        <v>1.2064397619476173</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="1">
-        <v>0.65882352941176481</v>
+        <f>(D19/parameters!$B$4)*inputs_df!E19</f>
+        <v>5.5151531974748229</v>
       </c>
       <c r="J19">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E19)</f>
-        <v>15565.28238617852</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>626004.35762087663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1202,11 +1220,11 @@
         <v>80</v>
       </c>
       <c r="E20" s="1">
-        <v>9.2151337316787166E-2</v>
+        <v>1.8007717138615942</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="0"/>
-        <v>6.4505936121751012E-2</v>
+        <v>1.2605401997031158</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1215,14 +1233,15 @@
         <v>27</v>
       </c>
       <c r="I20" s="1">
-        <v>0.54901960784313719</v>
+        <f>(D20/parameters!$B$4)*inputs_df!E20</f>
+        <v>5.7624694843571014</v>
       </c>
       <c r="J20">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E20)</f>
-        <v>16735.604370101719</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>654076.30190880818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1236,28 +1255,29 @@
         <v>80</v>
       </c>
       <c r="E21" s="1">
-        <v>0.11686570879803374</v>
+        <v>6.5595831070886055</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>8.1805996158623606E-2</v>
+        <v>4.5917081749620241</v>
       </c>
       <c r="G21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="1">
-        <v>0.7686274509803922</v>
+        <f>(D21/parameters!$B$4)*inputs_df!E21</f>
+        <v>20.990665942683538</v>
       </c>
       <c r="J21">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E21)</f>
-        <v>21223.981374810908</v>
+        <v>2382571.7761567235</v>
       </c>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1271,28 +1291,29 @@
         <v>40</v>
       </c>
       <c r="E22" s="1">
-        <v>0.10932638511814342</v>
+        <v>6.1133105044695046</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="0"/>
-        <v>7.652846958270039E-2</v>
+        <v>4.2793173531286532</v>
       </c>
       <c r="G22" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="1">
-        <v>0.1647058823529412</v>
+        <f>(D22/parameters!$B$4)*inputs_df!E22</f>
+        <v>9.7812968071512074</v>
       </c>
       <c r="J22">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E22)</f>
-        <v>19854.764801306024</v>
+        <v>2220476.6414334131</v>
       </c>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1306,11 +1327,11 @@
         <v>40</v>
       </c>
       <c r="E23" s="1">
-        <v>0.10188850840782508</v>
+        <v>5.6783630866157351</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="0"/>
-        <v>7.1321955885477559E-2</v>
+        <v>3.9748541606310148</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1319,14 +1340,15 @@
         <v>30</v>
       </c>
       <c r="I23" s="1">
-        <v>0.1647058823529412</v>
+        <f>(D23/parameters!$B$4)*inputs_df!E23</f>
+        <v>9.0853809385851765</v>
       </c>
       <c r="J23">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E23)</f>
-        <v>18503.972011945112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2062495.0403205673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1340,28 +1362,29 @@
         <v>60</v>
       </c>
       <c r="E24" s="1">
-        <v>9.4639384776928917E-2</v>
+        <v>5.2586116039496922</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="0"/>
-        <v>6.6247569343850246E-2</v>
+        <v>3.6810281227647845</v>
       </c>
       <c r="G24" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I24" s="1">
-        <v>0.32941176470588235</v>
+        <f>(D24/parameters!$B$4)*inputs_df!E24</f>
+        <v>12.620667849479261</v>
       </c>
       <c r="J24">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E24)</f>
-        <v>17187.458669338059</v>
+        <v>1910032.9067866071</v>
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1375,27 +1398,28 @@
         <v>60</v>
       </c>
       <c r="E25" s="1">
-        <v>8.7643526732494856E-2</v>
+        <v>6.556014210416274</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="0"/>
-        <v>6.1350468712746402E-2</v>
+        <v>4.5892099472913914</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I25" s="1">
-        <v>0.2470588235294118</v>
+        <f>(D25/parameters!$B$4)*inputs_df!E25</f>
+        <v>15.734434104999057</v>
       </c>
       <c r="J25">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E25)</f>
-        <v>15916.94088988839</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2381275.4815073991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1409,27 +1433,28 @@
         <v>60</v>
       </c>
       <c r="E26" s="1">
-        <v>0.10926690350693791</v>
+        <v>1.6461990345601698</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="0"/>
-        <v>7.6486832454856532E-2</v>
+        <v>1.1523393241921189</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I26" s="1">
-        <v>0.41176470588235292</v>
+        <f>(D26/parameters!$B$4)*inputs_df!E26</f>
+        <v>3.9508776829444074</v>
       </c>
       <c r="J26">
         <f>(parameters!$B$4*parameters!$B$8)/(parameters!$B$3/inputs_df!E26)</f>
-        <v>19843.962345894994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>597932.41333294485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I27" s="1"/>
     </row>
   </sheetData>
@@ -1441,18 +1466,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C388623-1A6B-40E9-8627-160DBCAB28EA}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1463,7 +1488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1474,18 +1499,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1496,29 +1521,29 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>3.83</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1529,7 +1554,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1537,7 +1562,7 @@
         <v>36322</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
